--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1880628F-48EF-984D-87CC-EF6A42637121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D15375-5C40-6646-819F-DE146C4E3AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="1600" windowWidth="20240" windowHeight="12080" tabRatio="705" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="460" windowWidth="30080" windowHeight="16460" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -15729,8 +15729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E58"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15918,7 +15918,7 @@
         <v>530</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
@@ -17504,13 +17504,13 @@
         <v>632</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>610</v>
+        <v>521</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>579</v>
@@ -17562,7 +17562,7 @@
         <v>637</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>610</v>
+        <v>521</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>168</v>
@@ -19152,7 +19152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D15375-5C40-6646-819F-DE146C4E3AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C72E4-26DE-814F-B1D7-E2EF4C03730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26880" yWindow="460" windowWidth="30080" windowHeight="16460" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1180">
   <si>
     <t>Table</t>
   </si>
@@ -1959,12 +1959,6 @@
   </si>
   <si>
     <t>26F</t>
-  </si>
-  <si>
-    <t>Identity Theft</t>
-  </si>
-  <si>
-    <t>Group B Offenses (Person)</t>
   </si>
   <si>
     <t>40C</t>
@@ -4540,13 +4534,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="F1" t="s">
         <v>390</v>
@@ -4569,7 +4563,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -4589,7 +4583,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -4609,7 +4603,7 @@
         <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -4629,7 +4623,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
@@ -4649,7 +4643,7 @@
         <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -4669,7 +4663,7 @@
         <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
@@ -4689,7 +4683,7 @@
         <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
@@ -4709,7 +4703,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -4729,7 +4723,7 @@
         <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -4749,7 +4743,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -4769,7 +4763,7 @@
         <v>181</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -4789,7 +4783,7 @@
         <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -4809,7 +4803,7 @@
         <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4820,16 +4814,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D15" s="1">
         <v>28</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4840,16 +4834,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D16" s="1">
         <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4860,16 +4854,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D17" s="1">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -4889,7 +4883,7 @@
         <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -4900,16 +4894,16 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D19" s="1">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -5029,7 +5023,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
@@ -5049,7 +5043,7 @@
         <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
@@ -5109,7 +5103,7 @@
         <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1">
@@ -5129,7 +5123,7 @@
         <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5140,16 +5134,16 @@
         <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D31" s="1">
         <v>81</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5160,16 +5154,16 @@
         <v>82</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D32" s="1">
         <v>82</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5180,16 +5174,16 @@
         <v>83</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D33" s="1">
         <v>83</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5200,16 +5194,16 @@
         <v>84</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D34" s="1">
         <v>84</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5220,16 +5214,16 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D35" s="1">
         <v>85</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -5327,13 +5321,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -5524,13 +5518,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -6740,13 +6734,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7105,13 +7099,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7368,13 +7362,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7580,13 +7574,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7597,13 +7591,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -7733,13 +7727,13 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -7843,13 +7837,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8038,13 +8032,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8148,13 +8142,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8309,16 +8303,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8380,13 +8374,13 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8456,13 +8450,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8566,13 +8560,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8676,13 +8670,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8778,13 +8772,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -9041,13 +9035,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9236,13 +9230,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9448,13 +9442,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9785,16 +9779,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
@@ -9952,13 +9946,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10079,13 +10073,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10189,13 +10183,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10401,13 +10395,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10511,13 +10505,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10690,13 +10684,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10919,13 +10913,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10970,13 +10964,13 @@
         <v>500</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11050,19 +11044,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G2">
         <v>12345678</v>
@@ -11082,13 +11076,13 @@
         <v>99998</v>
       </c>
       <c r="E3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F3" t="s">
         <v>169</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11105,13 +11099,13 @@
         <v>99998</v>
       </c>
       <c r="E4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
         <v>501</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -11147,16 +11141,16 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11164,16 +11158,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11181,16 +11175,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11198,16 +11192,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11215,16 +11209,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11232,16 +11226,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11249,16 +11243,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11266,16 +11260,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11283,16 +11277,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11300,16 +11294,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11317,16 +11311,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11334,16 +11328,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11351,16 +11345,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11368,16 +11362,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11385,16 +11379,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11402,16 +11396,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11419,16 +11413,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11436,16 +11430,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11453,16 +11447,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11470,16 +11464,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11487,16 +11481,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11504,16 +11498,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11521,16 +11515,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11538,16 +11532,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11555,16 +11549,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11572,16 +11566,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11589,16 +11583,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11609,13 +11603,13 @@
         <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11626,13 +11620,13 @@
         <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11643,13 +11637,13 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -11660,13 +11654,13 @@
         <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11677,13 +11671,13 @@
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11694,13 +11688,13 @@
         <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11711,13 +11705,13 @@
         <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11728,13 +11722,13 @@
         <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11745,13 +11739,13 @@
         <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -11762,13 +11756,13 @@
         <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11779,13 +11773,13 @@
         <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11796,13 +11790,13 @@
         <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11813,13 +11807,13 @@
         <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11830,13 +11824,13 @@
         <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11847,13 +11841,13 @@
         <v>156</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11864,13 +11858,13 @@
         <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11881,13 +11875,13 @@
         <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11898,13 +11892,13 @@
         <v>172</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11915,13 +11909,13 @@
         <v>173</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11932,13 +11926,13 @@
         <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11949,13 +11943,13 @@
         <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11966,13 +11960,13 @@
         <v>197</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -11983,13 +11977,13 @@
         <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -12000,13 +11994,13 @@
         <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -12017,13 +12011,13 @@
         <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -12034,13 +12028,13 @@
         <v>205</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -12051,13 +12045,13 @@
         <v>206</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -12068,13 +12062,13 @@
         <v>207</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -12085,13 +12079,13 @@
         <v>215</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -12102,13 +12096,13 @@
         <v>216</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -12119,13 +12113,13 @@
         <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -12136,13 +12130,13 @@
         <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -12153,13 +12147,13 @@
         <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -12170,13 +12164,13 @@
         <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -12187,13 +12181,13 @@
         <v>222</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -12204,13 +12198,13 @@
         <v>251</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -12221,13 +12215,13 @@
         <v>252</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -12238,13 +12232,13 @@
         <v>253</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12255,13 +12249,13 @@
         <v>254</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -12272,13 +12266,13 @@
         <v>255</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -12289,13 +12283,13 @@
         <v>256</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -12306,13 +12300,13 @@
         <v>257</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -12323,13 +12317,13 @@
         <v>258</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -12340,13 +12334,13 @@
         <v>262</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -12357,13 +12351,13 @@
         <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -12374,13 +12368,13 @@
         <v>264</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -12391,13 +12385,13 @@
         <v>265</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -12408,13 +12402,13 @@
         <v>266</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -12425,13 +12419,13 @@
         <v>267</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -12442,13 +12436,13 @@
         <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -12459,13 +12453,13 @@
         <v>269</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -12476,13 +12470,13 @@
         <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -12493,13 +12487,13 @@
         <v>284</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -12510,13 +12504,13 @@
         <v>301</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -12527,13 +12521,13 @@
         <v>302</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -12544,13 +12538,13 @@
         <v>304</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -12561,13 +12555,13 @@
         <v>305</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -12578,13 +12572,13 @@
         <v>306</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -12595,13 +12589,13 @@
         <v>315</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -12612,13 +12606,13 @@
         <v>316</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -12629,13 +12623,13 @@
         <v>317</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -12646,13 +12640,13 @@
         <v>320</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -12663,13 +12657,13 @@
         <v>342</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -12680,13 +12674,13 @@
         <v>343</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -12697,13 +12691,13 @@
         <v>351</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -12714,13 +12708,13 @@
         <v>352</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -12731,13 +12725,13 @@
         <v>353</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -12748,13 +12742,13 @@
         <v>354</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -12765,13 +12759,13 @@
         <v>355</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12782,13 +12776,13 @@
         <v>356</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12799,13 +12793,13 @@
         <v>357</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -12816,13 +12810,13 @@
         <v>358</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -12833,13 +12827,13 @@
         <v>359</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -12850,13 +12844,13 @@
         <v>360</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12867,13 +12861,13 @@
         <v>361</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -12884,13 +12878,13 @@
         <v>362</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -12901,13 +12895,13 @@
         <v>363</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -12918,13 +12912,13 @@
         <v>364</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -12935,13 +12929,13 @@
         <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -12952,13 +12946,13 @@
         <v>366</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -12969,13 +12963,13 @@
         <v>367</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -12986,13 +12980,13 @@
         <v>368</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -13003,13 +12997,13 @@
         <v>372</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13020,13 +13014,13 @@
         <v>375</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13037,13 +13031,13 @@
         <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -13054,13 +13048,13 @@
         <v>382</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -13071,13 +13065,13 @@
         <v>383</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13088,13 +13082,13 @@
         <v>384</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -13105,13 +13099,13 @@
         <v>387</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -13122,13 +13116,13 @@
         <v>388</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13139,13 +13133,13 @@
         <v>389</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13156,13 +13150,13 @@
         <v>390</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -13173,13 +13167,13 @@
         <v>391</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13190,13 +13184,13 @@
         <v>392</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -13207,13 +13201,13 @@
         <v>401</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -13224,13 +13218,13 @@
         <v>402</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13241,13 +13235,13 @@
         <v>404</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -13258,13 +13252,13 @@
         <v>406</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -13275,13 +13269,13 @@
         <v>407</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13292,13 +13286,13 @@
         <v>408</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -13309,13 +13303,13 @@
         <v>409</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -13326,13 +13320,13 @@
         <v>410</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -13343,13 +13337,13 @@
         <v>415</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -13360,13 +13354,13 @@
         <v>416</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -13377,13 +13371,13 @@
         <v>417</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -13394,13 +13388,13 @@
         <v>419</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -13411,13 +13405,13 @@
         <v>422</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -13428,13 +13422,13 @@
         <v>449</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -13445,13 +13439,13 @@
         <v>450</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -13462,13 +13456,13 @@
         <v>450</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -13479,13 +13473,13 @@
         <v>451</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -13496,13 +13490,13 @@
         <v>453</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -13513,13 +13507,13 @@
         <v>454</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -13530,13 +13524,13 @@
         <v>455</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -13547,13 +13541,13 @@
         <v>456</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -13564,13 +13558,13 @@
         <v>457</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -13581,13 +13575,13 @@
         <v>458</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -13598,13 +13592,13 @@
         <v>459</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -13615,13 +13609,13 @@
         <v>460</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -13632,13 +13626,13 @@
         <v>461</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -13649,13 +13643,13 @@
         <v>462</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -13666,13 +13660,13 @@
         <v>463</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -13683,13 +13677,13 @@
         <v>464</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -13700,13 +13694,13 @@
         <v>465</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -13717,13 +13711,13 @@
         <v>466</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -13734,13 +13728,13 @@
         <v>467</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -13751,13 +13745,13 @@
         <v>468</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -13768,13 +13762,13 @@
         <v>469</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -13785,13 +13779,13 @@
         <v>470</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -13802,13 +13796,13 @@
         <v>471</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -13819,13 +13813,13 @@
         <v>472</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -13836,13 +13830,13 @@
         <v>474</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -13853,13 +13847,13 @@
         <v>475</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -13870,13 +13864,13 @@
         <v>476</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -13887,13 +13881,13 @@
         <v>477</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -13904,13 +13898,13 @@
         <v>478</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -13921,13 +13915,13 @@
         <v>479</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -13938,13 +13932,13 @@
         <v>480</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -13955,13 +13949,13 @@
         <v>481</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -13972,13 +13966,13 @@
         <v>482</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -13989,13 +13983,13 @@
         <v>483</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -14006,13 +14000,13 @@
         <v>484</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -14023,13 +14017,13 @@
         <v>490</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -14040,13 +14034,13 @@
         <v>501</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -14057,13 +14051,13 @@
         <v>502</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -14074,13 +14068,13 @@
         <v>504</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -14091,13 +14085,13 @@
         <v>508</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -14108,13 +14102,13 @@
         <v>509</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -14125,13 +14119,13 @@
         <v>510</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -14142,13 +14136,13 @@
         <v>515</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -14159,13 +14153,13 @@
         <v>516</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -14176,13 +14170,13 @@
         <v>517</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -14193,13 +14187,13 @@
         <v>522</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -14210,13 +14204,13 @@
         <v>549</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -14227,13 +14221,13 @@
         <v>550</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -14244,13 +14238,13 @@
         <v>550</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -14261,13 +14255,13 @@
         <v>551</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -14278,13 +14272,13 @@
         <v>552</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -14295,13 +14289,13 @@
         <v>553</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -14312,13 +14306,13 @@
         <v>554</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -14329,13 +14323,13 @@
         <v>555</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -14346,13 +14340,13 @@
         <v>556</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -14363,13 +14357,13 @@
         <v>557</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -14380,13 +14374,13 @@
         <v>558</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -14397,13 +14391,13 @@
         <v>559</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -14414,13 +14408,13 @@
         <v>560</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -14431,13 +14425,13 @@
         <v>572</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -14448,13 +14442,13 @@
         <v>584</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -14465,13 +14459,13 @@
         <v>601</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -14482,13 +14476,13 @@
         <v>602</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -14499,13 +14493,13 @@
         <v>604</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="E198" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -14516,13 +14510,13 @@
         <v>605</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -14533,13 +14527,13 @@
         <v>606</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -14550,13 +14544,13 @@
         <v>607</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -14567,13 +14561,13 @@
         <v>608</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -14584,13 +14578,13 @@
         <v>609</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -14601,13 +14595,13 @@
         <v>610</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -14618,13 +14612,13 @@
         <v>615</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -14635,13 +14629,13 @@
         <v>616</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -14652,13 +14646,13 @@
         <v>617</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -14669,13 +14663,13 @@
         <v>618</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -14686,13 +14680,13 @@
         <v>622</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -14703,13 +14697,13 @@
         <v>623</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -14720,13 +14714,13 @@
         <v>640</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -14737,13 +14731,13 @@
         <v>641</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -14754,13 +14748,13 @@
         <v>652</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -14771,13 +14765,13 @@
         <v>653</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -14788,13 +14782,13 @@
         <v>654</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -14805,13 +14799,13 @@
         <v>655</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -14822,13 +14816,13 @@
         <v>656</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -14839,13 +14833,13 @@
         <v>661</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -14856,13 +14850,13 @@
         <v>664</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -14873,13 +14867,13 @@
         <v>665</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -14890,13 +14884,13 @@
         <v>667</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -14907,13 +14901,13 @@
         <v>669</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -14924,13 +14918,13 @@
         <v>670</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -14941,13 +14935,13 @@
         <v>701</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -14958,13 +14952,13 @@
         <v>702</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -14975,13 +14969,13 @@
         <v>704</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -14992,13 +14986,13 @@
         <v>705</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -15009,13 +15003,13 @@
         <v>706</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -15026,13 +15020,13 @@
         <v>707</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -15043,13 +15037,13 @@
         <v>708</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -15060,13 +15054,13 @@
         <v>709</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -15077,13 +15071,13 @@
         <v>710</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -15094,13 +15088,13 @@
         <v>715</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -15111,13 +15105,13 @@
         <v>716</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -15128,13 +15122,13 @@
         <v>717</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -15145,13 +15139,13 @@
         <v>718</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -15162,13 +15156,13 @@
         <v>720</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -15179,13 +15173,13 @@
         <v>722</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -15196,13 +15190,13 @@
         <v>740</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -15213,13 +15207,13 @@
         <v>741</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -15230,13 +15224,13 @@
         <v>751</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -15247,13 +15241,13 @@
         <v>752</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -15264,13 +15258,13 @@
         <v>753</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -15281,13 +15275,13 @@
         <v>754</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -15298,13 +15292,13 @@
         <v>755</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -15315,13 +15309,13 @@
         <v>757</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -15332,13 +15326,13 @@
         <v>758</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -15349,13 +15343,13 @@
         <v>759</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -15366,13 +15360,13 @@
         <v>760</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -15383,13 +15377,13 @@
         <v>761</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -15400,13 +15394,13 @@
         <v>797</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -15417,13 +15411,13 @@
         <v>798</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -15434,13 +15428,13 @@
         <v>799</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -15451,13 +15445,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -15468,13 +15462,13 @@
         <v>90</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -15485,13 +15479,13 @@
         <v>92</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -15502,13 +15496,13 @@
         <v>93</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -15519,13 +15513,13 @@
         <v>94</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -15536,13 +15530,13 @@
         <v>90</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -15553,13 +15547,13 @@
         <v>92</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -15570,13 +15564,13 @@
         <v>93</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -15587,13 +15581,13 @@
         <v>94</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -15601,16 +15595,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E263" s="12" t="s">
         <v>1163</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E263" s="12" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -15618,16 +15612,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -15635,16 +15629,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E265" s="12" t="s">
         <v>1168</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -15652,16 +15646,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E266" s="12" t="s">
         <v>1171</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D266" s="12" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E266" s="12" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -15669,16 +15663,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E267" s="12" t="s">
         <v>1174</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D267" s="12" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -15686,7 +15680,7 @@
         <v>99999</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>169</v>
@@ -15727,10 +15721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="C62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15755,13 +15749,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>515</v>
@@ -16538,13 +16532,13 @@
         <v>633</v>
       </c>
       <c r="C28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>633</v>
       </c>
       <c r="E28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F28" t="s">
         <v>521</v>
@@ -16564,16 +16558,16 @@
         <v>267</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>521</v>
@@ -16944,13 +16938,13 @@
         <v>598</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>598</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>521</v>
@@ -16973,13 +16967,13 @@
         <v>600</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>600</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>521</v>
@@ -17002,13 +16996,13 @@
         <v>601</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>601</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>521</v>
@@ -17031,13 +17025,13 @@
         <v>602</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>602</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>521</v>
@@ -17089,13 +17083,13 @@
         <v>604</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>604</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>521</v>
@@ -17118,13 +17112,13 @@
         <v>606</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>606</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>521</v>
@@ -17405,16 +17399,16 @@
         <v>909</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>610</v>
@@ -17518,48 +17512,48 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>702</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>610</v>
+        <v>521</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>403</v>
+        <v>641</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>521</v>
@@ -17568,27 +17562,27 @@
         <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
+        <v>642</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>521</v>
@@ -17597,7 +17591,7 @@
         <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>523</v>
@@ -17605,94 +17599,65 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
+        <v>99999</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>643</v>
+        <v>169</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>521</v>
+        <v>169</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>641</v>
+        <v>169</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>523</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
-        <v>99998</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C67" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>501</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
-    <sortCondition ref="A2:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17726,13 +17691,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -17760,13 +17725,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -17871,13 +17836,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18177,13 +18142,13 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -18650,16 +18615,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -18729,13 +18694,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18839,13 +18804,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18856,13 +18821,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -18941,13 +18906,13 @@
         <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -18975,13 +18940,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -19060,13 +19025,13 @@
         <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -19171,13 +19136,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -19188,13 +19153,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -19307,13 +19272,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D9" s="2">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">

--- a/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
+++ b/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/NIBRSCodeTablesGeneral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/nibrs-staging-data/src/test/resources/codeSpreadSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C72E4-26DE-814F-B1D7-E2EF4C03730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBFE8E-0CE3-3B44-BC1F-B18CC3749DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26880" yWindow="460" windowWidth="30080" windowHeight="16460" tabRatio="705" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1179">
   <si>
     <t>Table</t>
   </si>
@@ -1965,9 +1965,6 @@
   </si>
   <si>
     <t>Purchasing Prostitution</t>
-  </si>
-  <si>
-    <t>Prostitution Offenses (Society)</t>
   </si>
   <si>
     <t>64A</t>
@@ -4534,13 +4531,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="F1" t="s">
         <v>390</v>
@@ -4563,7 +4560,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -4583,7 +4580,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
@@ -4603,7 +4600,7 @@
         <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
@@ -4623,7 +4620,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
@@ -4643,7 +4640,7 @@
         <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -4663,7 +4660,7 @@
         <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
@@ -4683,7 +4680,7 @@
         <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
@@ -4703,7 +4700,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -4723,7 +4720,7 @@
         <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -4743,7 +4740,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
@@ -4763,7 +4760,7 @@
         <v>181</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -4783,7 +4780,7 @@
         <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -4803,7 +4800,7 @@
         <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4814,16 +4811,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" s="1">
         <v>28</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4834,16 +4831,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D16" s="1">
         <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -4854,16 +4851,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D17" s="1">
         <v>31</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -4883,7 +4880,7 @@
         <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -4894,16 +4891,16 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D19" s="1">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -5023,7 +5020,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
@@ -5043,7 +5040,7 @@
         <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
@@ -5103,7 +5100,7 @@
         <v>194</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1">
@@ -5123,7 +5120,7 @@
         <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5134,16 +5131,16 @@
         <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D31" s="1">
         <v>81</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
@@ -5154,16 +5151,16 @@
         <v>82</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D32" s="1">
         <v>82</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5174,16 +5171,16 @@
         <v>83</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D33" s="1">
         <v>83</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5194,16 +5191,16 @@
         <v>84</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D34" s="1">
         <v>84</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
@@ -5214,16 +5211,16 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D35" s="1">
         <v>85</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -5321,13 +5318,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -5518,13 +5515,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -6734,13 +6731,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7099,13 +7096,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7362,13 +7359,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7574,13 +7571,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -7591,13 +7588,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -7727,13 +7724,13 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -7837,13 +7834,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8032,13 +8029,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8142,13 +8139,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8303,16 +8300,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" t="s">
         <v>645</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8374,13 +8371,13 @@
         <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8450,13 +8447,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8560,13 +8557,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8670,13 +8667,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -8772,13 +8769,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -9035,13 +9032,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9230,13 +9227,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9442,13 +9439,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -9779,16 +9776,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
@@ -9946,13 +9943,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10073,13 +10070,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10183,13 +10180,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10395,13 +10392,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10505,13 +10502,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -10684,13 +10681,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10913,13 +10910,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10964,13 +10961,13 @@
         <v>500</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11044,19 +11041,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" t="s">
         <v>662</v>
-      </c>
-      <c r="C2" t="s">
-        <v>663</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" t="s">
         <v>664</v>
-      </c>
-      <c r="F2" t="s">
-        <v>665</v>
       </c>
       <c r="G2">
         <v>12345678</v>
@@ -11076,13 +11073,13 @@
         <v>99998</v>
       </c>
       <c r="E3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
         <v>169</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11099,13 +11096,13 @@
         <v>99998</v>
       </c>
       <c r="E4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F4" t="s">
         <v>501</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -11141,16 +11138,16 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11158,16 +11155,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11175,16 +11172,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11192,16 +11189,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11209,16 +11206,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11226,16 +11223,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11243,16 +11240,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11260,16 +11257,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11277,16 +11274,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11294,16 +11291,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11311,16 +11308,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11328,16 +11325,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11345,16 +11342,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11362,16 +11359,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11379,16 +11376,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11396,16 +11393,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11413,16 +11410,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11430,16 +11427,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11447,16 +11444,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11464,16 +11461,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11481,16 +11478,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11498,16 +11495,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11515,16 +11512,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11532,16 +11529,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11549,16 +11546,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11566,16 +11563,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11583,16 +11580,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11603,13 +11600,13 @@
         <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11620,13 +11617,13 @@
         <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11637,13 +11634,13 @@
         <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -11654,13 +11651,13 @@
         <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11671,13 +11668,13 @@
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11688,13 +11685,13 @@
         <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11705,13 +11702,13 @@
         <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11722,13 +11719,13 @@
         <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11739,13 +11736,13 @@
         <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -11756,13 +11753,13 @@
         <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11773,13 +11770,13 @@
         <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11790,13 +11787,13 @@
         <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11807,13 +11804,13 @@
         <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11824,13 +11821,13 @@
         <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11841,13 +11838,13 @@
         <v>156</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11858,13 +11855,13 @@
         <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11875,13 +11872,13 @@
         <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11892,13 +11889,13 @@
         <v>172</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11909,13 +11906,13 @@
         <v>173</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11926,13 +11923,13 @@
         <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11943,13 +11940,13 @@
         <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11960,13 +11957,13 @@
         <v>197</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -11977,13 +11974,13 @@
         <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11994,13 +11991,13 @@
         <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -12011,13 +12008,13 @@
         <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -12028,13 +12025,13 @@
         <v>205</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -12045,13 +12042,13 @@
         <v>206</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -12062,13 +12059,13 @@
         <v>207</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -12079,13 +12076,13 @@
         <v>215</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -12096,13 +12093,13 @@
         <v>216</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -12113,13 +12110,13 @@
         <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -12130,13 +12127,13 @@
         <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -12147,13 +12144,13 @@
         <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -12164,13 +12161,13 @@
         <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -12181,13 +12178,13 @@
         <v>222</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -12198,13 +12195,13 @@
         <v>251</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -12215,13 +12212,13 @@
         <v>252</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -12232,13 +12229,13 @@
         <v>253</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12249,13 +12246,13 @@
         <v>254</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -12266,13 +12263,13 @@
         <v>255</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -12283,13 +12280,13 @@
         <v>256</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -12300,13 +12297,13 @@
         <v>257</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -12317,13 +12314,13 @@
         <v>258</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -12334,13 +12331,13 @@
         <v>262</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -12351,13 +12348,13 @@
         <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -12368,13 +12365,13 @@
         <v>264</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -12385,13 +12382,13 @@
         <v>265</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -12402,13 +12399,13 @@
         <v>266</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -12419,13 +12416,13 @@
         <v>267</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -12436,13 +12433,13 @@
         <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -12453,13 +12450,13 @@
         <v>269</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -12470,13 +12467,13 @@
         <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -12487,13 +12484,13 @@
         <v>284</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -12504,13 +12501,13 @@
         <v>301</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -12521,13 +12518,13 @@
         <v>302</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -12538,13 +12535,13 @@
         <v>304</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -12555,13 +12552,13 @@
         <v>305</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -12572,13 +12569,13 @@
         <v>306</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -12589,13 +12586,13 @@
         <v>315</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -12606,13 +12603,13 @@
         <v>316</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -12623,13 +12620,13 @@
         <v>317</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -12640,13 +12637,13 @@
         <v>320</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -12657,13 +12654,13 @@
         <v>342</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -12674,13 +12671,13 @@
         <v>343</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -12691,13 +12688,13 @@
         <v>351</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -12708,13 +12705,13 @@
         <v>352</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -12725,13 +12722,13 @@
         <v>353</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -12742,13 +12739,13 @@
         <v>354</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -12759,13 +12756,13 @@
         <v>355</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12776,13 +12773,13 @@
         <v>356</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12793,13 +12790,13 @@
         <v>357</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -12810,13 +12807,13 @@
         <v>358</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -12827,13 +12824,13 @@
         <v>359</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -12844,13 +12841,13 @@
         <v>360</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12861,13 +12858,13 @@
         <v>361</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -12878,13 +12875,13 @@
         <v>362</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -12895,13 +12892,13 @@
         <v>363</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -12912,13 +12909,13 @@
         <v>364</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -12929,13 +12926,13 @@
         <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -12946,13 +12943,13 @@
         <v>366</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -12963,13 +12960,13 @@
         <v>367</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -12980,13 +12977,13 @@
         <v>368</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -12997,13 +12994,13 @@
         <v>372</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13014,13 +13011,13 @@
         <v>375</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13031,13 +13028,13 @@
         <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -13048,13 +13045,13 @@
         <v>382</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -13065,13 +13062,13 @@
         <v>383</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13082,13 +13079,13 @@
         <v>384</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -13099,13 +13096,13 @@
         <v>387</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -13116,13 +13113,13 @@
         <v>388</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13133,13 +13130,13 @@
         <v>389</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13150,13 +13147,13 @@
         <v>390</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -13167,13 +13164,13 @@
         <v>391</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13184,13 +13181,13 @@
         <v>392</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -13201,13 +13198,13 @@
         <v>401</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -13218,13 +13215,13 @@
         <v>402</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13235,13 +13232,13 @@
         <v>404</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -13252,13 +13249,13 @@
         <v>406</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -13269,13 +13266,13 @@
         <v>407</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13286,13 +13283,13 @@
         <v>408</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -13303,13 +13300,13 @@
         <v>409</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -13320,13 +13317,13 @@
         <v>410</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -13337,13 +13334,13 @@
         <v>415</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -13354,13 +13351,13 @@
         <v>416</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -13371,13 +13368,13 @@
         <v>417</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -13388,13 +13385,13 @@
         <v>419</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -13405,13 +13402,13 @@
         <v>422</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -13422,13 +13419,13 @@
         <v>449</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -13439,13 +13436,13 @@
         <v>450</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -13456,13 +13453,13 @@
         <v>450</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -13473,13 +13470,13 @@
         <v>451</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -13490,13 +13487,13 @@
         <v>453</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -13507,13 +13504,13 @@
         <v>454</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -13524,13 +13521,13 @@
         <v>455</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -13541,13 +13538,13 @@
         <v>456</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -13558,13 +13555,13 @@
         <v>457</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -13575,13 +13572,13 @@
         <v>458</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -13592,13 +13589,13 @@
         <v>459</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -13609,13 +13606,13 @@
         <v>460</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -13626,13 +13623,13 @@
         <v>461</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -13643,13 +13640,13 @@
         <v>462</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -13660,13 +13657,13 @@
         <v>463</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -13677,13 +13674,13 @@
         <v>464</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -13694,13 +13691,13 @@
         <v>465</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -13711,13 +13708,13 @@
         <v>466</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -13728,13 +13725,13 @@
         <v>467</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -13745,13 +13742,13 @@
         <v>468</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -13762,13 +13759,13 @@
         <v>469</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -13779,13 +13776,13 @@
         <v>470</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -13796,13 +13793,13 @@
         <v>471</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -13813,13 +13810,13 @@
         <v>472</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -13830,13 +13827,13 @@
         <v>474</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -13847,13 +13844,13 @@
         <v>475</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -13864,13 +13861,13 @@
         <v>476</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -13881,13 +13878,13 @@
         <v>477</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -13898,13 +13895,13 @@
         <v>478</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -13915,13 +13912,13 @@
         <v>479</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D164" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -13932,13 +13929,13 @@
         <v>480</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -13949,13 +13946,13 @@
         <v>481</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -13966,13 +13963,13 @@
         <v>482</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -13983,13 +13980,13 @@
         <v>483</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -14000,13 +13997,13 @@
         <v>484</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -14017,13 +14014,13 @@
         <v>490</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -14034,13 +14031,13 @@
         <v>501</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -14051,13 +14048,13 @@
         <v>502</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -14068,13 +14065,13 @@
         <v>504</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -14085,13 +14082,13 @@
         <v>508</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -14102,13 +14099,13 @@
         <v>509</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -14119,13 +14116,13 @@
         <v>510</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -14136,13 +14133,13 @@
         <v>515</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -14153,13 +14150,13 @@
         <v>516</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -14170,13 +14167,13 @@
         <v>517</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -14187,13 +14184,13 @@
         <v>522</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -14204,13 +14201,13 @@
         <v>549</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -14221,13 +14218,13 @@
         <v>550</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -14238,13 +14235,13 @@
         <v>550</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -14255,13 +14252,13 @@
         <v>551</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -14272,13 +14269,13 @@
         <v>552</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -14289,13 +14286,13 @@
         <v>553</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -14306,13 +14303,13 @@
         <v>554</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -14323,13 +14320,13 @@
         <v>555</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -14340,13 +14337,13 @@
         <v>556</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -14357,13 +14354,13 @@
         <v>557</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -14374,13 +14371,13 @@
         <v>558</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -14391,13 +14388,13 @@
         <v>559</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -14408,13 +14405,13 @@
         <v>560</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -14425,13 +14422,13 @@
         <v>572</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -14442,13 +14439,13 @@
         <v>584</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -14459,13 +14456,13 @@
         <v>601</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -14476,13 +14473,13 @@
         <v>602</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -14493,13 +14490,13 @@
         <v>604</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -14510,13 +14507,13 @@
         <v>605</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -14527,13 +14524,13 @@
         <v>606</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -14544,13 +14541,13 @@
         <v>607</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -14561,13 +14558,13 @@
         <v>608</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -14578,13 +14575,13 @@
         <v>609</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -14595,13 +14592,13 @@
         <v>610</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -14612,13 +14609,13 @@
         <v>615</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -14629,13 +14626,13 @@
         <v>616</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -14646,13 +14643,13 @@
         <v>617</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -14663,13 +14660,13 @@
         <v>618</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -14680,13 +14677,13 @@
         <v>622</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -14697,13 +14694,13 @@
         <v>623</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -14714,13 +14711,13 @@
         <v>640</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -14731,13 +14728,13 @@
         <v>641</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -14748,13 +14745,13 @@
         <v>652</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -14765,13 +14762,13 @@
         <v>653</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -14782,13 +14779,13 @@
         <v>654</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -14799,13 +14796,13 @@
         <v>655</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -14816,13 +14813,13 @@
         <v>656</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -14833,13 +14830,13 @@
         <v>661</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -14850,13 +14847,13 @@
         <v>664</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -14867,13 +14864,13 @@
         <v>665</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -14884,13 +14881,13 @@
         <v>667</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -14901,13 +14898,13 @@
         <v>669</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D222" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -14918,13 +14915,13 @@
         <v>670</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -14935,13 +14932,13 @@
         <v>701</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -14952,13 +14949,13 @@
         <v>702</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -14969,13 +14966,13 @@
         <v>704</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -14986,13 +14983,13 @@
         <v>705</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -15003,13 +15000,13 @@
         <v>706</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -15020,13 +15017,13 @@
         <v>707</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -15037,13 +15034,13 @@
         <v>708</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -15054,13 +15051,13 @@
         <v>709</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -15071,13 +15068,13 @@
         <v>710</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -15088,13 +15085,13 @@
         <v>715</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -15105,13 +15102,13 @@
         <v>716</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -15122,13 +15119,13 @@
         <v>717</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -15139,13 +15136,13 @@
         <v>718</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -15156,13 +15153,13 @@
         <v>720</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -15173,13 +15170,13 @@
         <v>722</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -15190,13 +15187,13 @@
         <v>740</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -15207,13 +15204,13 @@
         <v>741</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -15224,13 +15221,13 @@
         <v>751</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -15241,13 +15238,13 @@
         <v>752</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -15258,13 +15255,13 @@
         <v>753</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -15275,13 +15272,13 @@
         <v>754</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -15292,13 +15289,13 @@
         <v>755</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -15309,13 +15306,13 @@
         <v>757</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -15326,13 +15323,13 @@
         <v>758</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -15343,13 +15340,13 @@
         <v>759</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D248" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -15360,13 +15357,13 @@
         <v>760</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -15377,13 +15374,13 @@
         <v>761</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D250" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -15394,13 +15391,13 @@
         <v>797</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -15411,13 +15408,13 @@
         <v>798</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D252" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -15428,13 +15425,13 @@
         <v>799</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -15445,13 +15442,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -15462,13 +15459,13 @@
         <v>90</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -15479,13 +15476,13 @@
         <v>92</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -15496,13 +15493,13 @@
         <v>93</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -15513,13 +15510,13 @@
         <v>94</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -15530,13 +15527,13 @@
         <v>90</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -15547,13 +15544,13 @@
         <v>92</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -15564,13 +15561,13 @@
         <v>93</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D261" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -15581,13 +15578,13 @@
         <v>94</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D262" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -15595,16 +15592,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D263" s="12" t="s">
         <v>1161</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D263" s="12" t="s">
+      <c r="E263" s="12" t="s">
         <v>1162</v>
-      </c>
-      <c r="E263" s="12" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -15612,16 +15609,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E264" s="12" t="s">
         <v>1164</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E264" s="12" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -15629,16 +15626,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D265" s="12" t="s">
         <v>1166</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D265" s="12" t="s">
+      <c r="E265" s="12" t="s">
         <v>1167</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -15646,16 +15643,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D266" s="12" t="s">
         <v>1169</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D266" s="12" t="s">
+      <c r="E266" s="12" t="s">
         <v>1170</v>
-      </c>
-      <c r="E266" s="12" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -15663,16 +15660,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D267" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D267" s="12" t="s">
+      <c r="E267" s="12" t="s">
         <v>1173</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -15680,7 +15677,7 @@
         <v>99999</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>169</v>
@@ -15724,7 +15721,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="C62" sqref="A62:XFD62"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15749,13 +15746,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>515</v>
@@ -16532,13 +16529,13 @@
         <v>633</v>
       </c>
       <c r="C28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>633</v>
       </c>
       <c r="E28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F28" t="s">
         <v>521</v>
@@ -16558,16 +16555,16 @@
         <v>267</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>673</v>
-      </c>
       <c r="D29" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>521</v>
@@ -16938,13 +16935,13 @@
         <v>598</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>598</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>521</v>
@@ -16967,13 +16964,13 @@
         <v>600</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>600</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>521</v>
@@ -16996,13 +16993,13 @@
         <v>601</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>601</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>521</v>
@@ -17025,13 +17022,13 @@
         <v>602</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>602</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>521</v>
@@ -17083,13 +17080,13 @@
         <v>604</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>604</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>521</v>
@@ -17112,13 +17109,13 @@
         <v>606</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>606</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>521</v>
@@ -17399,16 +17396,16 @@
         <v>909</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="D58" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>610</v>
@@ -17533,7 +17530,7 @@
         <v>168</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>579</v>
@@ -17544,16 +17541,16 @@
         <v>641</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="D63" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>521</v>
@@ -17562,7 +17559,7 @@
         <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>523</v>
@@ -17573,16 +17570,16 @@
         <v>642</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="D64" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>521</v>
@@ -17591,7 +17588,7 @@
         <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>523</v>
@@ -17602,13 +17599,13 @@
         <v>99999</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>169</v>
@@ -17691,13 +17688,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -17725,13 +17722,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -17836,13 +17833,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18142,13 +18139,13 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
@@ -18615,16 +18612,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="D47" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -18694,13 +18691,13 @@
         <v>512</v>
       </c>
       <c r="C1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18804,13 +18801,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -18821,13 +18818,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -18906,13 +18903,13 @@
         <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
@@ -18940,13 +18937,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
@@ -19025,13 +19022,13 @@
         <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
@@ -19136,13 +19133,13 @@
         <v>512</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -19153,13 +19150,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -19272,13 +19269,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D9" s="2">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
